--- a/src/main/java/resources/demodata.xlsx
+++ b/src/main/java/resources/demodata.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{165842B2-EB3C-45BD-B77F-6F6E435FB16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Apstestgit\src\main\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Testcase</t>
   </si>
@@ -46,23 +50,23 @@
     <t>Newpass1!</t>
   </si>
   <si>
-    <t>Login2</t>
-  </si>
-  <si>
-    <t>Newpass1</t>
-  </si>
-  <si>
     <t>Newpass3@</t>
   </si>
   <si>
     <t>Newpass4@</t>
+  </si>
+  <si>
+    <t>Location1</t>
+  </si>
+  <si>
+    <t>Glendale,CA,USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,21 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -442,41 +446,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1B532067-5A19-4320-9CC8-5763D769271E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{68AD6BA8-AF68-4B4C-BC1B-5E53CECD6DCF}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC66F6B-53D3-4DFC-878F-9627ACA5AF73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -495,24 +495,23 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0CC82A1C-48EB-48A9-AA1B-74E2E13D9A6F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E63DC397-F0EE-4FB6-86E0-F12DD15724C2}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
